--- a/CoreMark分数.xlsx
+++ b/CoreMark分数.xlsx
@@ -76,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,6 +172,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -180,59 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,127 +323,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +640,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,45 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,16 +724,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,13 +742,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -778,58 +778,58 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,15 +1327,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B20"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="15.15" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.15" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1439,7 +1439,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="15.15" spans="1:8">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="15.15" spans="1:8">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="23" t="s">
@@ -1525,7 +1525,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" ht="15.15" spans="1:8">
       <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" ht="15.15" spans="1:8">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="s">
@@ -1611,7 +1611,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" ht="15.15" spans="1:8">
       <c r="A21" s="32" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" ht="15.15" spans="1:8">
       <c r="A24" s="33" t="s">
         <v>15</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" ht="15.15" spans="1:8">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="30"/>
@@ -1699,7 +1699,9 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="27" ht="15.15"/>
+    <row r="28" ht="15.15"/>
+    <row r="29" ht="15.15" spans="1:8">
       <c r="A29" s="34" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1725,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" ht="15.15" spans="1:8">
       <c r="A31" s="40"/>
       <c r="B31" s="41"/>
       <c r="C31" s="40"/>
@@ -1733,6 +1735,7 @@
       <c r="G31" s="42"/>
       <c r="H31" s="41"/>
     </row>
+    <row r="32" ht="15.15"/>
   </sheetData>
   <mergeCells count="54">
     <mergeCell ref="A5:B5"/>
